--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="my daily routine 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">amo a mi papá</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t listen to music</t>
+    <t xml:space="preserve">I don't listen to music</t>
   </si>
   <si>
     <t xml:space="preserve">no escucho musica</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">el cocina muy bien</t>
   </si>
   <si>
-    <t xml:space="preserve">he doesn’t cook very well</t>
+    <t xml:space="preserve">he doesn't cook very well</t>
   </si>
   <si>
     <t xml:space="preserve">no cocina muy bien</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">ellos escriben cartas</t>
   </si>
   <si>
-    <t xml:space="preserve">the don’t write letters</t>
+    <t xml:space="preserve">the don't write letters</t>
   </si>
   <si>
     <t xml:space="preserve">el no escribe cartas</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Él estudia inglés</t>
   </si>
   <si>
-    <t xml:space="preserve">she doesn’t play soccer</t>
+    <t xml:space="preserve">she doesn't play soccer</t>
   </si>
   <si>
     <t xml:space="preserve">ella no juega futbol</t>
@@ -426,11 +426,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.95"/>
@@ -554,7 +554,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.78"/>
@@ -702,7 +702,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.47"/>
@@ -778,7 +778,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
@@ -874,11 +874,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="my daily routine 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">ellos escriben cartas</t>
   </si>
   <si>
-    <t xml:space="preserve">the don't write letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el no escribe cartas</t>
+    <t xml:space="preserve">they don't write letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ellos no escribe cartas</t>
   </si>
   <si>
     <t xml:space="preserve">do you play any musical instrument?</t>
@@ -430,7 +430,7 @@
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.95"/>
@@ -554,7 +554,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.78"/>
@@ -702,7 +702,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.47"/>
@@ -774,11 +774,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
@@ -874,11 +874,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="my daily routine 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t xml:space="preserve">Have lunch</t>
   </si>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <t xml:space="preserve">Él escucha música</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we watch te</t>
-  </si>
-  <si>
-    <t xml:space="preserve">te miramos</t>
   </si>
   <si>
     <t xml:space="preserve">she watches tv</t>
@@ -430,7 +424,7 @@
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.95"/>
@@ -554,7 +548,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.78"/>
@@ -702,7 +696,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.47"/>
@@ -774,11 +768,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
@@ -872,13 +866,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>
@@ -954,14 +948,6 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="my daily routine 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">¿comes verdura?</t>
   </si>
   <si>
-    <t xml:space="preserve">do you live in an apartement?</t>
+    <t xml:space="preserve">do you live in an apartment?</t>
   </si>
   <si>
     <t xml:space="preserve">vives en un apartamento?</t>
@@ -424,7 +424,7 @@
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.95"/>
@@ -548,7 +548,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.78"/>
@@ -696,7 +696,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.47"/>
@@ -768,11 +768,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
@@ -868,11 +868,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>
